--- a/public/files/refund-report.xlsx
+++ b/public/files/refund-report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnABeall\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JaimeLHabersat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53CEBC-E08D-45CF-88E6-325729F6DF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E995C-C86F-41B6-958E-6EE303A8F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F6B7B8-CB1F-4012-B8AB-951C4865ED6A}"/>
   </bookViews>
@@ -114,14 +114,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -927,219 +926,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6525954885960063E-3"/>
-                  <c:y val="-9.2853084687670208E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5841-4467-B554-381AE9BC1514}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6525954885960063E-3"/>
-                  <c:y val="-6.177890155943464E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5841-4467-B554-381AE9BC1514}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.6600460891536249E-3"/>
-                  <c:y val="-6.8360756096045158E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5841-4467-B554-381AE9BC1514}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.0296146669986006E-17"/>
-                  <c:y val="7.3614980259502943E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5841-4467-B554-381AE9BC1514}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="9.2961870410168637E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-5841-4467-B554-381AE9BC1514}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6525361811085967E-3"/>
-                  <c:y val="9.0382449573741613E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-5841-4467-B554-381AE9BC1514}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -1149,7 +935,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -1197,10 +983,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'GSA SmartPay Net Refunds'!$A$4:$A$29</c:f>
+              <c:f>'GSA SmartPay Net Refunds'!$A$4:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>97</c:v>
                 </c:pt>
@@ -1278,16 +1064,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GSA SmartPay Net Refunds'!$B$4:$B$29</c:f>
+              <c:f>'GSA SmartPay Net Refunds'!$B$4:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>6000000</c:v>
                 </c:pt>
@@ -1365,6 +1154,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>426467985.50999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>471856109.18874192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2538,99 +2330,98 @@
   <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2639,44 +2430,44 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2685,44 +2476,44 @@
       <c r="B4" s="2">
         <v>6000000</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2731,44 +2522,44 @@
       <c r="B5" s="4">
         <v>6000000</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2777,44 +2568,44 @@
       <c r="B6" s="2">
         <v>41000000</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2823,44 +2614,44 @@
       <c r="B7" s="4">
         <v>51000000</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2869,44 +2660,44 @@
       <c r="B8" s="2">
         <v>66000000</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2915,44 +2706,44 @@
       <c r="B9" s="4">
         <v>64000000</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2961,44 +2752,44 @@
       <c r="B10" s="2">
         <v>106000000</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3007,44 +2798,44 @@
       <c r="B11" s="4">
         <v>123000000</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3053,44 +2844,44 @@
       <c r="B12" s="2">
         <v>118000000</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3099,44 +2890,44 @@
       <c r="B13" s="4">
         <v>156000000</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3145,44 +2936,44 @@
       <c r="B14" s="2">
         <v>166000000</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3191,44 +2982,44 @@
       <c r="B15" s="4">
         <v>187000000</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3237,44 +3028,44 @@
       <c r="B16" s="2">
         <v>225000000</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3283,44 +3074,44 @@
       <c r="B17" s="4">
         <v>326000000</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -3329,44 +3120,44 @@
       <c r="B18" s="2">
         <v>297000000</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3375,44 +3166,44 @@
       <c r="B19" s="4">
         <v>298837599.38</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3421,44 +3212,44 @@
       <c r="B20" s="2">
         <v>272580870.01999998</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -3467,44 +3258,44 @@
       <c r="B21" s="4">
         <v>267128269.84</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -3513,44 +3304,44 @@
       <c r="B22" s="2">
         <v>287102083.49000001</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -3559,44 +3350,44 @@
       <c r="B23" s="4">
         <v>292814403.19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -3605,44 +3396,44 @@
       <c r="B24" s="2">
         <v>298445683.80000001</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -3651,44 +3442,44 @@
       <c r="B25" s="4">
         <v>310243182.10000002</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -3697,44 +3488,44 @@
       <c r="B26" s="2">
         <v>435057215.44999999</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -3743,44 +3534,44 @@
       <c r="B27" s="4">
         <v>403244450.91000003</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -3789,44 +3580,44 @@
       <c r="B28" s="2">
         <v>389812736.57999998</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -3835,716 +3626,720 @@
       <c r="B29" s="4">
         <v>426467985.50999999</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4">
+        <v>471856109.18874192</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6"/>
-      <c r="AN31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6"/>
-      <c r="AN39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="6"/>
-      <c r="AN41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
-      <c r="AM43" s="6"/>
-      <c r="AN43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
-      <c r="AM44" s="6"/>
-      <c r="AN44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="6"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/files/refund-report.xlsx
+++ b/public/files/refund-report.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JaimeLHabersat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E995C-C86F-41B6-958E-6EE303A8F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B669C-97F0-43E5-9512-84E5027E9F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F6B7B8-CB1F-4012-B8AB-951C4865ED6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{59F6B7B8-CB1F-4012-B8AB-951C4865ED6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="GSA SmartPay Net Refunds" sheetId="1" r:id="rId1"/>
+    <sheet name="GSA SmartPay Net Refunds" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="GSA SmartPay Net Refunds Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fiscal Year</t>
   </si>
   <si>
     <t>Refunds</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -52,7 +83,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +107,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,13 +152,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -184,20 +229,6 @@
               <a:t>GSA SmartPay Net Refunds</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>SP1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> (FY97-FY08), SP2 (FY09-FY18), and SP3 (FY19-Present)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -231,7 +262,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2944673408806605E-2"/>
+          <c:y val="7.3955054565934111E-2"/>
+          <c:w val="0.87883454307558173"/>
+          <c:h val="0.70907856361880117"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -925,7 +966,233 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000034-4997-45EA-ACF8-DAC8DB9AF015}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.521691336349321E-17"/>
+                  <c:y val="-3.030915813773729E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5841-4467-B554-381AE9BC1514}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6600460891536249E-3"/>
+                  <c:y val="-4.5310183404660934E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5841-4467-B554-381AE9BC1514}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.043382672698642E-17"/>
+                  <c:y val="-1.2598735094650563E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5841-4467-B554-381AE9BC1514}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.5111243823593612E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5841-4467-B554-381AE9BC1514}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -935,7 +1202,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -982,10 +1249,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'GSA SmartPay Net Refunds'!$A$4:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>97</c:v>
@@ -997,34 +1263,34 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>09</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>10</c:v>
@@ -1068,8 +1334,8 @@
                 <c:pt idx="26">
                   <c:v>23</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1244,7 +1510,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1294,21 +1560,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1365,7 +1616,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1443,10 +1694,1558 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1"/>
+              <a:t>GSA SmartPay Net Refunds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2944673408806605E-2"/>
+          <c:y val="7.3955054565934111E-2"/>
+          <c:w val="0.87883454307558173"/>
+          <c:h val="0.70907856361880117"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GSA SmartPay Net Refunds'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Refunds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="111125">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:srgbClr val="036479"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-18D0-42F5-A343-7140A4C138A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.521691336349321E-17"/>
+                  <c:y val="-3.030915813773729E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-18D0-42F5-A343-7140A4C138A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6600460891536249E-3"/>
+                  <c:y val="-4.5310183404660934E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-18D0-42F5-A343-7140A4C138A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.043382672698642E-17"/>
+                  <c:y val="-1.2598735094650563E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-18D0-42F5-A343-7140A4C138A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.5111243823593612E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-18D0-42F5-A343-7140A4C138A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GSA SmartPay Net Refunds'!$A$4:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GSA SmartPay Net Refunds'!$B$4:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>166000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>187000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>326000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>297000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>298837599.38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>272580870.01999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>267128269.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>287102083.49000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>292814403.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>298445683.80000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310243182.10000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>435057215.44999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>403244450.91000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>389812736.57999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>426467985.50999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>471856109.18874192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-18D0-42F5-A343-7140A4C138A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="302415455"/>
+        <c:axId val="302421279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="302415455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Fiscal Year (FY)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302421279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="302421279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dollars </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0,,&quot;M&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302415455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000000"/>
+        <c:minorUnit val="2000000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1989,20 +3788,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130312</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>163739</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>172356</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287564</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2030,10 +4332,1391 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4395</cdr:x>
+      <cdr:y>0.93903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49179</cdr:x>
+      <cdr:y>0.95703</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CE952A-0EB3-B801-BB22-DB6E4F809D43}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3362326" y="3974963"/>
+          <a:ext cx="400050" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24154</cdr:x>
+      <cdr:y>0.91099</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26519</cdr:x>
+      <cdr:y>0.94133</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D8DE84-0BC2-437B-F421-B4F7AB007BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1847850" y="4289287"/>
+          <a:ext cx="180975" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72876</cdr:x>
+      <cdr:y>0.91099</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75076</cdr:x>
+      <cdr:y>0.93732</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95705FA2-CFA2-995B-790C-30C14CE92948}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5575301" y="4289288"/>
+          <a:ext cx="168276" cy="123962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50424</cdr:x>
+      <cdr:y>0.91503</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52706</cdr:x>
+      <cdr:y>0.94339</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95705FA2-CFA2-995B-790C-30C14CE92948}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3857626" y="4308337"/>
+          <a:ext cx="174624" cy="133487"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="036479"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2764</cdr:x>
+      <cdr:y>0.89885</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38472</cdr:x>
+      <cdr:y>0.94336</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDB2BBD-68FE-D480-812E-D2B63B484AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2114551" y="4232138"/>
+          <a:ext cx="828675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SmartPay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53702</cdr:x>
+      <cdr:y>0.89686</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64534</cdr:x>
+      <cdr:y>0.94136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79994BD-48D8-1DB7-E689-61EA3EDB63FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4108450" y="4222750"/>
+          <a:ext cx="828675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SmartPay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75366</cdr:x>
+      <cdr:y>0.89686</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86198</cdr:x>
+      <cdr:y>0.94136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79994BD-48D8-1DB7-E689-61EA3EDB63FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5765800" y="4222750"/>
+          <a:ext cx="828675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SmartPay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1815</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30425DC0-FC4D-4EF1-BE66-20F534D8808F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4395</cdr:x>
+      <cdr:y>0.93903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.49179</cdr:x>
+      <cdr:y>0.95703</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CE952A-0EB3-B801-BB22-DB6E4F809D43}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3362326" y="3974963"/>
+          <a:ext cx="400050" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24154</cdr:x>
+      <cdr:y>0.91099</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.26519</cdr:x>
+      <cdr:y>0.94133</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D8DE84-0BC2-437B-F421-B4F7AB007BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1847850" y="4289287"/>
+          <a:ext cx="180975" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72876</cdr:x>
+      <cdr:y>0.91099</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75076</cdr:x>
+      <cdr:y>0.93732</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95705FA2-CFA2-995B-790C-30C14CE92948}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5575301" y="4289288"/>
+          <a:ext cx="168276" cy="123962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50424</cdr:x>
+      <cdr:y>0.91503</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52706</cdr:x>
+      <cdr:y>0.94339</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95705FA2-CFA2-995B-790C-30C14CE92948}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3857626" y="4308337"/>
+          <a:ext cx="174624" cy="133487"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="036479"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2764</cdr:x>
+      <cdr:y>0.89885</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38472</cdr:x>
+      <cdr:y>0.94336</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDB2BBD-68FE-D480-812E-D2B63B484AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2114551" y="4232138"/>
+          <a:ext cx="828675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SmartPay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53702</cdr:x>
+      <cdr:y>0.89686</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64534</cdr:x>
+      <cdr:y>0.94136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79994BD-48D8-1DB7-E689-61EA3EDB63FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4108450" y="4222750"/>
+          <a:ext cx="828675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SmartPay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75366</cdr:x>
+      <cdr:y>0.89686</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86198</cdr:x>
+      <cdr:y>0.94136</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79994BD-48D8-1DB7-E689-61EA3EDB63FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5765800" y="4222750"/>
+          <a:ext cx="828675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SmartPay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2071,7 +5754,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2177,7 +5860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2319,7 +6002,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2329,2017 +6012,2018 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221688A-C4CC-471D-9445-3D65F494C309}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="10">
         <v>97</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6000000</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="9">
         <v>98</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>6000000</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="10">
         <v>99</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>41000000</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0</v>
+      <c r="A7" s="11" t="s">
+        <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>51000000</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
+      <c r="A8" s="12" t="s">
+        <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>66000000</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2</v>
+      <c r="A9" s="11" t="s">
+        <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>64000000</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
+      <c r="A10" s="12" t="s">
+        <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>106000000</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
+      <c r="A11" s="11" t="s">
+        <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>123000000</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
+      <c r="A12" s="12" t="s">
+        <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>118000000</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6</v>
+      <c r="A13" s="9" t="s">
+        <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>156000000</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
+      <c r="A14" s="10" t="s">
+        <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>166000000</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>8</v>
+      <c r="A15" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>187000000</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>9</v>
+      <c r="A16" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>225000000</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="9">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>326000000</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="10">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>297000000</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="9">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>298837599.38</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="10">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>272580870.01999998</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="9">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>267128269.84</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="10">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>287102083.49000001</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="9">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>292814403.19</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="10">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>298445683.80000001</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="9">
         <v>18</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>310243182.10000002</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>435057215.44999999</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="9">
         <v>20</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>403244450.91000003</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="10">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>389812736.57999998</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="9">
         <v>22</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>426467985.50999999</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="9">
         <v>23</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>471856109.18874192</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4347,4 +8031,19 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FC553E-21A9-468B-964D-897B06F43937}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/files/refund-report.xlsx
+++ b/public/files/refund-report.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JaimeLHabersat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSA Data\Reports\Refund Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B669C-97F0-43E5-9512-84E5027E9F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AC2405-6001-4E38-AEDB-2BA0A1F207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{59F6B7B8-CB1F-4012-B8AB-951C4865ED6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{59F6B7B8-CB1F-4012-B8AB-951C4865ED6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="GSA SmartPay Net Refunds" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="GSA SmartPay Net Refunds Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="GSA SmartPay Net Refunds" sheetId="1" r:id="rId1"/>
+    <sheet name="GSA SmartPay Net Refunds Chart" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25*</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>FY25 is through 3/31/2025.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -160,12 +172,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -226,7 +239,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
-              <a:t>GSA SmartPay Net Refunds</a:t>
+              <a:t>GSA SmartPay(R) Net Refunds</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -293,7 +306,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="92D050"/>
             </a:solidFill>
             <a:ln w="111125">
               <a:solidFill>
@@ -312,7 +325,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -338,7 +351,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -364,7 +377,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -390,7 +403,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -416,7 +429,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -442,7 +455,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -468,7 +481,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -494,7 +507,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -520,7 +533,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -546,7 +559,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -572,7 +585,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -598,7 +611,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -624,7 +637,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -648,7 +661,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -672,7 +685,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -696,7 +709,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -720,7 +733,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -744,7 +757,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -768,7 +781,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -792,7 +805,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -816,7 +829,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -840,7 +853,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -864,7 +877,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -891,7 +904,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -918,7 +931,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -972,10 +985,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="111125">
                 <a:solidFill>
@@ -993,6 +1003,60 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000034-4997-45EA-ACF8-DAC8DB9AF015}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000036-01FC-4C42-9561-839368366CD4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="111125">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-01FC-4C42-9561-839368366CD4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1020,7 +1084,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -1069,7 +1133,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -1118,7 +1182,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -1167,7 +1231,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -1208,7 +1272,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1250,9 +1314,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'GSA SmartPay Net Refunds'!$A$4:$A$30</c:f>
+              <c:f>'GSA SmartPay Net Refunds'!$A$4:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>97</c:v>
                 </c:pt>
@@ -1333,16 +1397,22 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25*</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GSA SmartPay Net Refunds'!$B$4:$B$30</c:f>
+              <c:f>'GSA SmartPay Net Refunds'!$B$4:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>6000000</c:v>
                 </c:pt>
@@ -1423,6 +1493,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>471856109.18874192</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>505920158.7602604</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>219609763.67566624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,7 +1537,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1493,7 +1569,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1531,7 +1607,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1567,7 +1643,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1580,7 +1656,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Dollars </a:t>
                 </a:r>
               </a:p>
@@ -1599,7 +1675,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1631,7 +1707,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4739,7 +4815,7 @@
       <cdr:y>0.89885</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.38472</cdr:x>
+      <cdr:x>0.39841</cdr:x>
       <cdr:y>0.94336</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -4755,8 +4831,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2114551" y="4232138"/>
-          <a:ext cx="828675" cy="209550"/>
+          <a:off x="2114567" y="4232135"/>
+          <a:ext cx="933433" cy="209553"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4767,7 +4843,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>SmartPay</a:t>
           </a:r>
           <a:r>
@@ -4785,8 +4861,8 @@
       <cdr:y>0.89686</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.64534</cdr:x>
-      <cdr:y>0.94136</cdr:y>
+      <cdr:x>0.65115</cdr:x>
+      <cdr:y>0.95954</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4801,8 +4877,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4108450" y="4222750"/>
-          <a:ext cx="828675" cy="209550"/>
+          <a:off x="4108412" y="4222765"/>
+          <a:ext cx="873164" cy="295123"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4877,11 +4953,11 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>SmartPay</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
             <a:t> 2</a:t>
           </a:r>
         </a:p>
@@ -4894,8 +4970,8 @@
       <cdr:y>0.89686</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86198</cdr:x>
-      <cdr:y>0.94136</cdr:y>
+      <cdr:x>0.88148</cdr:x>
+      <cdr:y>0.95145</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4910,8 +4986,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5765800" y="4222750"/>
-          <a:ext cx="828675" cy="209550"/>
+          <a:off x="5765793" y="4222765"/>
+          <a:ext cx="977908" cy="257023"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4986,7 +5062,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>SmartPay</a:t>
           </a:r>
           <a:r>
@@ -6012,19 +6088,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221688A-C4CC-471D-9445-3D65F494C309}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
+      <c r="A1" s="7"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -6066,7 +6142,7 @@
       <c r="AN1" s="4"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
@@ -6108,7 +6184,7 @@
       <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6154,7 +6230,7 @@
       <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>97</v>
       </c>
       <c r="B4" s="1">
@@ -6200,7 +6276,7 @@
       <c r="AN4" s="4"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>98</v>
       </c>
       <c r="B5" s="3">
@@ -6246,7 +6322,7 @@
       <c r="AN5" s="4"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>99</v>
       </c>
       <c r="B6" s="1">
@@ -6292,7 +6368,7 @@
       <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="3">
@@ -6338,7 +6414,7 @@
       <c r="AN7" s="4"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -6384,7 +6460,7 @@
       <c r="AN8" s="4"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3">
@@ -6430,7 +6506,7 @@
       <c r="AN9" s="4"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1">
@@ -6476,7 +6552,7 @@
       <c r="AN10" s="4"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
@@ -6522,7 +6598,7 @@
       <c r="AN11" s="4"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
@@ -6568,7 +6644,7 @@
       <c r="AN12" s="4"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3">
@@ -6614,7 +6690,7 @@
       <c r="AN13" s="4"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1">
@@ -6660,7 +6736,7 @@
       <c r="AN14" s="4"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3">
@@ -6706,7 +6782,7 @@
       <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1">
@@ -6752,7 +6828,7 @@
       <c r="AN16" s="4"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>10</v>
       </c>
       <c r="B17" s="3">
@@ -6798,7 +6874,7 @@
       <c r="AN17" s="4"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>11</v>
       </c>
       <c r="B18" s="1">
@@ -6844,7 +6920,7 @@
       <c r="AN18" s="4"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>12</v>
       </c>
       <c r="B19" s="3">
@@ -6890,7 +6966,7 @@
       <c r="AN19" s="4"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>13</v>
       </c>
       <c r="B20" s="1">
@@ -6936,7 +7012,7 @@
       <c r="AN20" s="4"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>14</v>
       </c>
       <c r="B21" s="3">
@@ -6982,7 +7058,7 @@
       <c r="AN21" s="4"/>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="1">
@@ -7028,7 +7104,7 @@
       <c r="AN22" s="4"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>16</v>
       </c>
       <c r="B23" s="3">
@@ -7074,7 +7150,7 @@
       <c r="AN23" s="4"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" s="1">
@@ -7120,7 +7196,7 @@
       <c r="AN24" s="4"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>18</v>
       </c>
       <c r="B25" s="3">
@@ -7166,7 +7242,7 @@
       <c r="AN25" s="4"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="1">
@@ -7212,7 +7288,7 @@
       <c r="AN26" s="4"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>20</v>
       </c>
       <c r="B27" s="3">
@@ -7258,7 +7334,7 @@
       <c r="AN27" s="4"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" s="1">
@@ -7304,14 +7380,16 @@
       <c r="AN28" s="4"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>22</v>
       </c>
       <c r="B29" s="3">
         <v>426467985.50999999</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -7350,14 +7428,16 @@
       <c r="AN29" s="4"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>23</v>
       </c>
       <c r="B30" s="3">
         <v>471856109.18874192</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -7396,8 +7476,12 @@
       <c r="AN30" s="4"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="11">
+        <v>505920158.7602604</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -7438,8 +7522,12 @@
       <c r="AN31" s="4"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="11">
+        <v>219609763.67566624</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -7481,7 +7569,7 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -7523,7 +7611,7 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -7565,7 +7653,7 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -7607,7 +7695,7 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -7649,7 +7737,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -7691,7 +7779,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -7733,7 +7821,7 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -7775,7 +7863,7 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -7817,7 +7905,7 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -7859,7 +7947,7 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -7901,7 +7989,7 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -7943,7 +8031,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -7985,7 +8073,7 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -8037,8 +8125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FC553E-21A9-468B-964D-897B06F43937}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
